--- a/feilong-office/feilong-office-excel/src/test/resources/excel/consultant/consultant-list-export.xlsx
+++ b/feilong-office/feilong-office-excel/src/test/resources/excel/consultant/consultant-list-export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feilong/workspace/feilong/feilong/feilong-office/feilong-office-excel/src/test/resources/excel/consultant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C5DC38-823B-3F44-82DC-C5D99B5C8001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0AE89B-90C2-D648-B370-C8633F9CE97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>咨询列表</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -232,6 +232,10 @@
   <si>
     <t>是否公示(0为未公示，1为已公示)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -694,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -769,6 +773,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
